--- a/geekshop/Результат нагрузочного тестирования.xlsx
+++ b/geekshop/Результат нагрузочного тестирования.xlsx
@@ -233,6 +233,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="2371725"/>
+          <a:ext cx="6981825" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,7 +585,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,6 +829,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
